--- a/scripts/data_analysis/out/analysis_result_x264_vs._x265_vs._uavs3e.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x264_vs._x265_vs._uavs3e.xlsx
@@ -11,7 +11,6 @@
     <sheet name="anchor_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="refer1_data" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="refer2_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="refer3_data" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -186,68 +185,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$2:$D$5</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$2:$E$5</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="27"/>
@@ -264,6 +206,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -396,68 +364,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$38:$D$41</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$38:$E$41</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="27"/>
@@ -474,6 +385,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -606,68 +543,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$42:$D$45</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$42:$E$45</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="24"/>
@@ -684,6 +564,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -816,68 +722,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$46:$D$49</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$46:$E$49</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="25"/>
@@ -894,6 +743,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1026,68 +901,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$50:$D$53</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$50:$E$53</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="24"/>
@@ -1104,6 +922,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1236,68 +1080,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$54:$D$57</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$54:$E$57</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="21"/>
@@ -1314,6 +1101,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1446,68 +1259,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$58:$D$61</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$58:$E$61</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="23"/>
@@ -1524,6 +1280,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1656,68 +1438,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$62:$D$65</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$62:$E$65</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="24"/>
@@ -1734,6 +1459,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1866,68 +1617,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$66:$D$69</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$66:$E$69</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="21"/>
@@ -1944,6 +1638,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2076,68 +1796,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$70:$D$73</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$70:$E$73</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="20"/>
@@ -2154,6 +1817,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2286,68 +1975,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$74:$D$77</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$74:$E$77</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="23"/>
@@ -2364,6 +1996,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2496,68 +2154,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$6:$D$9</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$6:$E$9</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="28"/>
@@ -2574,6 +2175,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2706,68 +2333,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$78:$D$81</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$78:$E$81</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="28"/>
@@ -2784,6 +2354,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2916,68 +2512,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$82:$D$85</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$82:$E$85</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="29"/>
@@ -2994,6 +2533,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3126,68 +2691,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$86:$D$89</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$86:$E$89</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="28"/>
@@ -3204,6 +2712,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3336,68 +2870,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$90:$D$93</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$90:$E$93</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="24"/>
@@ -3414,6 +2891,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3546,42 +3049,38 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$94:$D$97</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$94:$E$97</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="23"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -3597,33 +3096,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="24"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3756,68 +3228,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$98:$D$101</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$98:$E$101</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="24"/>
@@ -3834,6 +3249,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3966,42 +3407,38 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$102:$D$105</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$102:$E$105</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+          <min val="27"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
@@ -4017,33 +3454,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-          <min val="29"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Y-PSNR (dB)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4176,68 +3586,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$10:$D$13</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$10:$E$13</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="29"/>
@@ -4254,6 +3607,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4386,68 +3765,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$14:$D$17</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$14:$E$17</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="27"/>
@@ -4464,6 +3786,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4596,68 +3944,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$18:$D$21</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$18:$E$21</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="25"/>
@@ -4674,6 +3965,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4806,68 +4123,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$22:$D$25</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$22:$E$25</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="26"/>
@@ -4884,6 +4144,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -5016,68 +4302,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$26:$D$29</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$26:$E$29</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="26"/>
@@ -5094,6 +4323,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -5226,68 +4481,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$30:$D$33</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$30:$E$33</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="24"/>
@@ -5304,6 +4502,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -5436,68 +4660,11 @@
           </yVal>
           <smooth val="1"/>
         </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <v>vvenc</v>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="circle"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'refer3_data'!$D$34:$D$37</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'refer3_data'!$E$34:$E$37</f>
-            </numRef>
-          </yVal>
-          <smooth val="1"/>
-        </ser>
         <axId val="10"/>
         <axId val="20"/>
       </scatterChart>
       <valAx>
         <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
         <scaling>
           <orientation val="minMax"/>
           <min val="25"/>
@@ -5514,6 +4681,32 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -6399,7 +5592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6473,36 +5666,6 @@
           <t>Delta_time_2(%)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BD-rate_3(piecewise_cubic)(%)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>BD-rate_3(cubic)(%)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Delta_Y-PSNR_3(dB)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Delta_U-PSNR_3(dB)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Delta_V-PSNR_3(dB)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Delta_time_3(%)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -6549,24 +5712,6 @@
       <c r="N2" t="n">
         <v>81.861</v>
       </c>
-      <c r="O2" t="n">
-        <v>-88.3</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-88.7</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-0.434</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-0.076</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6492.315</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -6613,24 +5758,6 @@
       <c r="N3" t="n">
         <v>128.82</v>
       </c>
-      <c r="O3" t="n">
-        <v>-70.40000000000001</v>
-      </c>
-      <c r="P3" t="n">
-        <v>-70.3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.821</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.306</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.323</v>
-      </c>
-      <c r="T3" t="n">
-        <v>7483.393</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -6677,24 +5804,6 @@
       <c r="N4" t="n">
         <v>99.21899999999999</v>
       </c>
-      <c r="O4" t="n">
-        <v>-63.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>-63.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.344</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-0.722</v>
-      </c>
-      <c r="T4" t="n">
-        <v>6357.196999999999</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6741,24 +5850,6 @@
       <c r="N5" t="n">
         <v>-32.747</v>
       </c>
-      <c r="O5" t="n">
-        <v>-77.40000000000001</v>
-      </c>
-      <c r="P5" t="n">
-        <v>-77.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.355</v>
-      </c>
-      <c r="R5" t="n">
-        <v>-0.272</v>
-      </c>
-      <c r="S5" t="n">
-        <v>-0.166</v>
-      </c>
-      <c r="T5" t="n">
-        <v>5052.971</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -6805,24 +5896,6 @@
       <c r="N6" t="n">
         <v>252.791</v>
       </c>
-      <c r="O6" t="n">
-        <v>-47</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-47.1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>-1.745</v>
-      </c>
-      <c r="R6" t="n">
-        <v>-0.73</v>
-      </c>
-      <c r="S6" t="n">
-        <v>-0.3720000000000001</v>
-      </c>
-      <c r="T6" t="n">
-        <v>8616.527</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -6869,24 +5942,6 @@
       <c r="N7" t="n">
         <v>167.609</v>
       </c>
-      <c r="O7" t="n">
-        <v>-67.7</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-67.7</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.495</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.297</v>
-      </c>
-      <c r="T7" t="n">
-        <v>6138.528</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -6933,24 +5988,6 @@
       <c r="N8" t="n">
         <v>220.558</v>
       </c>
-      <c r="O8" t="n">
-        <v>-70.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-70.2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.055</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.116</v>
-      </c>
-      <c r="S8" t="n">
-        <v>-0.272</v>
-      </c>
-      <c r="T8" t="n">
-        <v>9174.236999999999</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -6997,24 +6034,6 @@
       <c r="N9" t="n">
         <v>228.203</v>
       </c>
-      <c r="O9" t="n">
-        <v>-76.40000000000001</v>
-      </c>
-      <c r="P9" t="n">
-        <v>-76.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.176</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="T9" t="n">
-        <v>6065.857</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -7061,24 +6080,6 @@
       <c r="N10" t="n">
         <v>214.199</v>
       </c>
-      <c r="O10" t="n">
-        <v>-64.09999999999999</v>
-      </c>
-      <c r="P10" t="n">
-        <v>-64.09999999999999</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.142</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.322</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8413.870999999999</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -7125,24 +6126,6 @@
       <c r="N11" t="n">
         <v>156.45</v>
       </c>
-      <c r="O11" t="n">
-        <v>-65.5</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-65.40000000000001</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.452</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="T11" t="n">
-        <v>8721.700000000001</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -7189,24 +6172,6 @@
       <c r="N12" t="n">
         <v>237.367</v>
       </c>
-      <c r="O12" t="n">
-        <v>-65</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-65</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.797</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="T12" t="n">
-        <v>8207.041999999999</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -7253,24 +6218,6 @@
       <c r="N13" t="n">
         <v>300.923</v>
       </c>
-      <c r="O13" t="n">
-        <v>-66.59999999999999</v>
-      </c>
-      <c r="P13" t="n">
-        <v>-66.59999999999999</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.292</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.293</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.447</v>
-      </c>
-      <c r="T13" t="n">
-        <v>13000.314</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -7317,24 +6264,6 @@
       <c r="N14" t="n">
         <v>268.338</v>
       </c>
-      <c r="O14" t="n">
-        <v>-62</v>
-      </c>
-      <c r="P14" t="n">
-        <v>-61.9</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.6850000000000001</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.8109999999999999</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9501.517</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -7381,24 +6310,6 @@
       <c r="N15" t="n">
         <v>340.925</v>
       </c>
-      <c r="O15" t="n">
-        <v>-64.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>-64.3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-0.341</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.228</v>
-      </c>
-      <c r="T15" t="n">
-        <v>10563.821</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -7445,24 +6356,6 @@
       <c r="N16" t="n">
         <v>306.265</v>
       </c>
-      <c r="O16" t="n">
-        <v>-51.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>-51.3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>-0.648</v>
-      </c>
-      <c r="R16" t="n">
-        <v>-0.177</v>
-      </c>
-      <c r="S16" t="n">
-        <v>-0.08800000000000001</v>
-      </c>
-      <c r="T16" t="n">
-        <v>12406.691</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -7509,24 +6402,6 @@
       <c r="N17" t="n">
         <v>342.089</v>
       </c>
-      <c r="O17" t="n">
-        <v>-51.3</v>
-      </c>
-      <c r="P17" t="n">
-        <v>-51.3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.833</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.152</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="T17" t="n">
-        <v>13862.013</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -7573,24 +6448,6 @@
       <c r="N18" t="n">
         <v>458.816</v>
       </c>
-      <c r="O18" t="n">
-        <v>-58.8</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-58.8</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.8079999999999999</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.9470000000000001</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.286</v>
-      </c>
-      <c r="T18" t="n">
-        <v>11928.592</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -7637,24 +6494,6 @@
       <c r="N19" t="n">
         <v>391.59</v>
       </c>
-      <c r="O19" t="n">
-        <v>-70.8</v>
-      </c>
-      <c r="P19" t="n">
-        <v>-70.8</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.605</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.598</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.057</v>
-      </c>
-      <c r="T19" t="n">
-        <v>8186.705</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -7701,24 +6540,6 @@
       <c r="N20" t="n">
         <v>459.688</v>
       </c>
-      <c r="O20" t="n">
-        <v>-47.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>-47.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.728</v>
-      </c>
-      <c r="T20" t="n">
-        <v>13398.025</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -7765,24 +6586,6 @@
       <c r="N21" t="n">
         <v>158.094</v>
       </c>
-      <c r="O21" t="n">
-        <v>-56.9</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-56.6</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.168</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.061</v>
-      </c>
-      <c r="T21" t="n">
-        <v>6987.704000000001</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -7829,24 +6632,6 @@
       <c r="N22" t="n">
         <v>126.228</v>
       </c>
-      <c r="O22" t="n">
-        <v>-69.40000000000001</v>
-      </c>
-      <c r="P22" t="n">
-        <v>-68.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.799</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.413</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="T22" t="n">
-        <v>5690.507</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -7893,24 +6678,6 @@
       <c r="N23" t="n">
         <v>132.676</v>
       </c>
-      <c r="O23" t="n">
-        <v>-60.3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>-59.8</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.225</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.619</v>
-      </c>
-      <c r="T23" t="n">
-        <v>7069.148</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -7957,24 +6724,6 @@
       <c r="N24" t="n">
         <v>310.995</v>
       </c>
-      <c r="O24" t="n">
-        <v>-66.3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>-66.3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.074</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.142</v>
-      </c>
-      <c r="T24" t="n">
-        <v>12232.564</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -8021,24 +6770,6 @@
       <c r="N25" t="n">
         <v>89.589</v>
       </c>
-      <c r="O25" t="n">
-        <v>-49.1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>-49.1</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>-0.768</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="S25" t="n">
-        <v>-0.216</v>
-      </c>
-      <c r="T25" t="n">
-        <v>11064.736</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -8085,24 +6816,6 @@
       <c r="N26" t="n">
         <v>283.48</v>
       </c>
-      <c r="O26" t="n">
-        <v>-19.3</v>
-      </c>
-      <c r="P26" t="n">
-        <v>-19.2</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>-2.164</v>
-      </c>
-      <c r="R26" t="n">
-        <v>-1.647</v>
-      </c>
-      <c r="S26" t="n">
-        <v>-0.5529999999999999</v>
-      </c>
-      <c r="T26" t="n">
-        <v>8596.57</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -8149,24 +6862,6 @@
       <c r="N27" t="n">
         <v>267.006</v>
       </c>
-      <c r="O27" t="n">
-        <v>-63.7</v>
-      </c>
-      <c r="P27" t="n">
-        <v>-63.7</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.261</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3.307</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.568</v>
-      </c>
-      <c r="T27" t="n">
-        <v>7649.35</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -8174,7 +6869,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>﻿Average</t>
+          <t>﻿Average:</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -8212,24 +6907,6 @@
       </c>
       <c r="N28" t="n">
         <v>230.424</v>
-      </c>
-      <c r="O28" t="n">
-        <v>-62</v>
-      </c>
-      <c r="P28" t="n">
-        <v>-62</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.6729999999999999</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.799</v>
-      </c>
-      <c r="T28" t="n">
-        <v>8956.226999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17140,2972 +15817,4 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H105"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>video sequence</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>total frames</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>bitrate(kbps)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Y-PSNR(dB)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>U-PSNR(dB)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>V-PSNR(dB)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>time(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Beauty_3840x2160_50_600_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>600</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8949.8812</v>
-      </c>
-      <c r="E2" t="n">
-        <v>35.0958</v>
-      </c>
-      <c r="F2" t="n">
-        <v>37.2004</v>
-      </c>
-      <c r="G2" t="n">
-        <v>39.555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19766.7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Beauty_3840x2160_50_600_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>600</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2619.2256</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34.8701</v>
-      </c>
-      <c r="F3" t="n">
-        <v>37.0897</v>
-      </c>
-      <c r="G3" t="n">
-        <v>39.4449</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11117.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Beauty_3840x2160_50_600_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>600</v>
-      </c>
-      <c r="D4" t="n">
-        <v>676.8052</v>
-      </c>
-      <c r="E4" t="n">
-        <v>34.5738</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36.9743</v>
-      </c>
-      <c r="G4" t="n">
-        <v>39.2604</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5400.62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Beauty_3840x2160_50_600_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>600</v>
-      </c>
-      <c r="D5" t="n">
-        <v>335.6828</v>
-      </c>
-      <c r="E5" t="n">
-        <v>34.1721</v>
-      </c>
-      <c r="F5" t="n">
-        <v>36.7694</v>
-      </c>
-      <c r="G5" t="n">
-        <v>38.9497</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3176.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>﻿Chimei-inn_3840x2160_50_317_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>317</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4236.7314</v>
-      </c>
-      <c r="E6" t="n">
-        <v>43.0562</v>
-      </c>
-      <c r="F6" t="n">
-        <v>48.0566</v>
-      </c>
-      <c r="G6" t="n">
-        <v>48.3015</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4237.75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chimei-inn_3840x2160_50_317_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>317</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2507.5336</v>
-      </c>
-      <c r="E7" t="n">
-        <v>41.5334</v>
-      </c>
-      <c r="F7" t="n">
-        <v>46.9457</v>
-      </c>
-      <c r="G7" t="n">
-        <v>47.1342</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3220.34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Chimei-inn_3840x2160_50_317_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>317</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1210.9136</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38.7815</v>
-      </c>
-      <c r="F8" t="n">
-        <v>45.1989</v>
-      </c>
-      <c r="G8" t="n">
-        <v>45.299</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2208.14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Chimei-inn_3840x2160_50_317_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>317</v>
-      </c>
-      <c r="D9" t="n">
-        <v>656.1327</v>
-      </c>
-      <c r="E9" t="n">
-        <v>36.5495</v>
-      </c>
-      <c r="F9" t="n">
-        <v>43.3018</v>
-      </c>
-      <c r="G9" t="n">
-        <v>43.3156</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1524.36</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>﻿Girlhood_3840x2160_50_235_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>235</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8783.7181</v>
-      </c>
-      <c r="E10" t="n">
-        <v>42.6138</v>
-      </c>
-      <c r="F10" t="n">
-        <v>47.5925</v>
-      </c>
-      <c r="G10" t="n">
-        <v>46.6411</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4414.22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Girlhood_3840x2160_50_235_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>235</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5603.4934</v>
-      </c>
-      <c r="E11" t="n">
-        <v>40.9719</v>
-      </c>
-      <c r="F11" t="n">
-        <v>46.1516</v>
-      </c>
-      <c r="G11" t="n">
-        <v>45.1148</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3451.2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Girlhood_3840x2160_50_235_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>235</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2736.7261</v>
-      </c>
-      <c r="E12" t="n">
-        <v>38.2598</v>
-      </c>
-      <c r="F12" t="n">
-        <v>43.6027</v>
-      </c>
-      <c r="G12" t="n">
-        <v>42.3891</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2422.45</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Girlhood_3840x2160_50_235_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>235</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1513.7137</v>
-      </c>
-      <c r="E13" t="n">
-        <v>35.9802</v>
-      </c>
-      <c r="F13" t="n">
-        <v>41.2669</v>
-      </c>
-      <c r="G13" t="n">
-        <v>39.9136</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1740.35</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>﻿RaceNight_3840x2160_50_235_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>600</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6412.1456</v>
-      </c>
-      <c r="E14" t="n">
-        <v>36.4768</v>
-      </c>
-      <c r="F14" t="n">
-        <v>43.9107</v>
-      </c>
-      <c r="G14" t="n">
-        <v>43.5394</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10575.6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>RaceNight_3840x2160_50_235_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>600</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3066.7232</v>
-      </c>
-      <c r="E15" t="n">
-        <v>36.0073</v>
-      </c>
-      <c r="F15" t="n">
-        <v>43.2201</v>
-      </c>
-      <c r="G15" t="n">
-        <v>42.9273</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7629.61</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>RaceNight_3840x2160_50_235_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>600</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1398.3456</v>
-      </c>
-      <c r="E16" t="n">
-        <v>34.8714</v>
-      </c>
-      <c r="F16" t="n">
-        <v>41.6425</v>
-      </c>
-      <c r="G16" t="n">
-        <v>41.4657</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4686.68</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>RaceNight_3840x2160_50_235_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>600</v>
-      </c>
-      <c r="D17" t="n">
-        <v>796.4208</v>
-      </c>
-      <c r="E17" t="n">
-        <v>33.5364</v>
-      </c>
-      <c r="F17" t="n">
-        <v>40.1136</v>
-      </c>
-      <c r="G17" t="n">
-        <v>40.0301</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3138.29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>﻿PeopleOnStreet_2560x1600_30_crop_150_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>150</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10930.5136</v>
-      </c>
-      <c r="E18" t="n">
-        <v>35.9894</v>
-      </c>
-      <c r="F18" t="n">
-        <v>42.3884</v>
-      </c>
-      <c r="G18" t="n">
-        <v>42.8634</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1857.34</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PeopleOnStreet_2560x1600_30_crop_150_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>150</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7376.712</v>
-      </c>
-      <c r="E19" t="n">
-        <v>34.195</v>
-      </c>
-      <c r="F19" t="n">
-        <v>41.2266</v>
-      </c>
-      <c r="G19" t="n">
-        <v>41.9834</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1507.81</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>PeopleOnStreet_2560x1600_30_crop_150_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>150</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3820.6128</v>
-      </c>
-      <c r="E20" t="n">
-        <v>30.9957</v>
-      </c>
-      <c r="F20" t="n">
-        <v>39.4002</v>
-      </c>
-      <c r="G20" t="n">
-        <v>40.5784</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1044.79</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>PeopleOnStreet_2560x1600_30_crop_150_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>150</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2007.968</v>
-      </c>
-      <c r="E21" t="n">
-        <v>28.1015</v>
-      </c>
-      <c r="F21" t="n">
-        <v>37.8187</v>
-      </c>
-      <c r="G21" t="n">
-        <v>39.2527</v>
-      </c>
-      <c r="H21" t="n">
-        <v>740.2719999999999</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>﻿Traffic_2560x1600_30_crop_150_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>150</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3324.3472</v>
-      </c>
-      <c r="E22" t="n">
-        <v>38.8296</v>
-      </c>
-      <c r="F22" t="n">
-        <v>39.7845</v>
-      </c>
-      <c r="G22" t="n">
-        <v>42.2964</v>
-      </c>
-      <c r="H22" t="n">
-        <v>855.8919999999999</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Traffic_2560x1600_30_crop_150_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>150</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2022.152</v>
-      </c>
-      <c r="E23" t="n">
-        <v>37.2466</v>
-      </c>
-      <c r="F23" t="n">
-        <v>38.9543</v>
-      </c>
-      <c r="G23" t="n">
-        <v>41.284</v>
-      </c>
-      <c r="H23" t="n">
-        <v>666.623</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Traffic_2560x1600_30_crop_150_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>150</v>
-      </c>
-      <c r="D24" t="n">
-        <v>949.8432</v>
-      </c>
-      <c r="E24" t="n">
-        <v>34.5002</v>
-      </c>
-      <c r="F24" t="n">
-        <v>37.6245</v>
-      </c>
-      <c r="G24" t="n">
-        <v>39.781</v>
-      </c>
-      <c r="H24" t="n">
-        <v>467.845</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Traffic_2560x1600_30_crop_150_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>150</v>
-      </c>
-      <c r="D25" t="n">
-        <v>483.2064</v>
-      </c>
-      <c r="E25" t="n">
-        <v>31.9851</v>
-      </c>
-      <c r="F25" t="n">
-        <v>36.2475</v>
-      </c>
-      <c r="G25" t="n">
-        <v>38.3268</v>
-      </c>
-      <c r="H25" t="n">
-        <v>349.62</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>﻿BasketballDrive_1920x1080_50_500_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>501</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2612.0666</v>
-      </c>
-      <c r="E26" t="n">
-        <v>37.1582</v>
-      </c>
-      <c r="F26" t="n">
-        <v>42.536</v>
-      </c>
-      <c r="G26" t="n">
-        <v>42.9632</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2758.27</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>BasketballDrive_1920x1080_50_500_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>501</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1616.9523</v>
-      </c>
-      <c r="E27" t="n">
-        <v>36.0431</v>
-      </c>
-      <c r="F27" t="n">
-        <v>41.6948</v>
-      </c>
-      <c r="G27" t="n">
-        <v>41.7157</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2100.34</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>BasketballDrive_1920x1080_50_500_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>501</v>
-      </c>
-      <c r="D28" t="n">
-        <v>760.2913</v>
-      </c>
-      <c r="E28" t="n">
-        <v>33.8802</v>
-      </c>
-      <c r="F28" t="n">
-        <v>40.0907</v>
-      </c>
-      <c r="G28" t="n">
-        <v>39.3124</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1362.48</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>BasketballDrive_1920x1080_50_500_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>501</v>
-      </c>
-      <c r="D29" t="n">
-        <v>397.3787</v>
-      </c>
-      <c r="E29" t="n">
-        <v>31.8773</v>
-      </c>
-      <c r="F29" t="n">
-        <v>38.5309</v>
-      </c>
-      <c r="G29" t="n">
-        <v>37.253</v>
-      </c>
-      <c r="H29" t="n">
-        <v>930.8480000000001</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>﻿BQTerrace_1920x1080_60_600_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>601</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1818.1869</v>
-      </c>
-      <c r="E30" t="n">
-        <v>34.7232</v>
-      </c>
-      <c r="F30" t="n">
-        <v>40.8209</v>
-      </c>
-      <c r="G30" t="n">
-        <v>43.3198</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1855.33</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>BQTerrace_1920x1080_60_600_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>601</v>
-      </c>
-      <c r="D31" t="n">
-        <v>893.5991</v>
-      </c>
-      <c r="E31" t="n">
-        <v>33.8201</v>
-      </c>
-      <c r="F31" t="n">
-        <v>40.0942</v>
-      </c>
-      <c r="G31" t="n">
-        <v>42.7077</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1344.31</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>BQTerrace_1920x1080_60_600_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>601</v>
-      </c>
-      <c r="D32" t="n">
-        <v>370.2449</v>
-      </c>
-      <c r="E32" t="n">
-        <v>32.0586</v>
-      </c>
-      <c r="F32" t="n">
-        <v>38.8832</v>
-      </c>
-      <c r="G32" t="n">
-        <v>41.6648</v>
-      </c>
-      <c r="H32" t="n">
-        <v>873.923</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>BQTerrace_1920x1080_60_600_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>601</v>
-      </c>
-      <c r="D33" t="n">
-        <v>175.1996</v>
-      </c>
-      <c r="E33" t="n">
-        <v>30.0223</v>
-      </c>
-      <c r="F33" t="n">
-        <v>37.6253</v>
-      </c>
-      <c r="G33" t="n">
-        <v>40.5815</v>
-      </c>
-      <c r="H33" t="n">
-        <v>628.009</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>﻿Cactus_1920x1080_50_500_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>500</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2599.9594</v>
-      </c>
-      <c r="E34" t="n">
-        <v>36.7093</v>
-      </c>
-      <c r="F34" t="n">
-        <v>39.181</v>
-      </c>
-      <c r="G34" t="n">
-        <v>42.1171</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2205.96</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Cactus_1920x1080_50_500_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>500</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1584.0667</v>
-      </c>
-      <c r="E35" t="n">
-        <v>35.607</v>
-      </c>
-      <c r="F35" t="n">
-        <v>38.6512</v>
-      </c>
-      <c r="G35" t="n">
-        <v>41.1074</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1699.29</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Cactus_1920x1080_50_500_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>500</v>
-      </c>
-      <c r="D36" t="n">
-        <v>748.2148999999999</v>
-      </c>
-      <c r="E36" t="n">
-        <v>33.3654</v>
-      </c>
-      <c r="F36" t="n">
-        <v>37.5515</v>
-      </c>
-      <c r="G36" t="n">
-        <v>39.2536</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1127.4</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Cactus_1920x1080_50_500_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>500</v>
-      </c>
-      <c r="D37" t="n">
-        <v>376.0032</v>
-      </c>
-      <c r="E37" t="n">
-        <v>31.1426</v>
-      </c>
-      <c r="F37" t="n">
-        <v>36.3102</v>
-      </c>
-      <c r="G37" t="n">
-        <v>37.444</v>
-      </c>
-      <c r="H37" t="n">
-        <v>789.05</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>﻿Kimono1_1920x1080_24_240_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>240</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2790.987</v>
-      </c>
-      <c r="E38" t="n">
-        <v>40.2825</v>
-      </c>
-      <c r="F38" t="n">
-        <v>42.7196</v>
-      </c>
-      <c r="G38" t="n">
-        <v>44.0592</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1202.68</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Kimono1_1920x1080_24_240_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>240</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1778.488</v>
-      </c>
-      <c r="E39" t="n">
-        <v>38.9936</v>
-      </c>
-      <c r="F39" t="n">
-        <v>41.9251</v>
-      </c>
-      <c r="G39" t="n">
-        <v>43.0413</v>
-      </c>
-      <c r="H39" t="n">
-        <v>923.564</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Kimono1_1920x1080_24_240_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>240</v>
-      </c>
-      <c r="D40" t="n">
-        <v>837.566</v>
-      </c>
-      <c r="E40" t="n">
-        <v>36.4792</v>
-      </c>
-      <c r="F40" t="n">
-        <v>40.6596</v>
-      </c>
-      <c r="G40" t="n">
-        <v>41.6787</v>
-      </c>
-      <c r="H40" t="n">
-        <v>599.437</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Kimono1_1920x1080_24_240_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>240</v>
-      </c>
-      <c r="D41" t="n">
-        <v>414.581</v>
-      </c>
-      <c r="E41" t="n">
-        <v>34.1346</v>
-      </c>
-      <c r="F41" t="n">
-        <v>39.439</v>
-      </c>
-      <c r="G41" t="n">
-        <v>40.5964</v>
-      </c>
-      <c r="H41" t="n">
-        <v>413.952</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>﻿ParkScene_1920x1080_24_240_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>240</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3134.647</v>
-      </c>
-      <c r="E42" t="n">
-        <v>37.524</v>
-      </c>
-      <c r="F42" t="n">
-        <v>40.9071</v>
-      </c>
-      <c r="G42" t="n">
-        <v>41.8785</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ParkScene_1920x1080_24_240_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>240</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1854.239</v>
-      </c>
-      <c r="E43" t="n">
-        <v>35.9122</v>
-      </c>
-      <c r="F43" t="n">
-        <v>39.8746</v>
-      </c>
-      <c r="G43" t="n">
-        <v>40.7364</v>
-      </c>
-      <c r="H43" t="n">
-        <v>759.942</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ParkScene_1920x1080_24_240_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>240</v>
-      </c>
-      <c r="D44" t="n">
-        <v>789.273</v>
-      </c>
-      <c r="E44" t="n">
-        <v>33.2903</v>
-      </c>
-      <c r="F44" t="n">
-        <v>38.313</v>
-      </c>
-      <c r="G44" t="n">
-        <v>39.3154</v>
-      </c>
-      <c r="H44" t="n">
-        <v>509.144</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>ParkScene_1920x1080_24_240_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>240</v>
-      </c>
-      <c r="D45" t="n">
-        <v>354.152</v>
-      </c>
-      <c r="E45" t="n">
-        <v>31.009</v>
-      </c>
-      <c r="F45" t="n">
-        <v>36.7684</v>
-      </c>
-      <c r="G45" t="n">
-        <v>38.3195</v>
-      </c>
-      <c r="H45" t="n">
-        <v>366.395</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>﻿BasketballDrill_832x480_50_500_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>501</v>
-      </c>
-      <c r="D46" t="n">
-        <v>969.4213</v>
-      </c>
-      <c r="E46" t="n">
-        <v>38.4659</v>
-      </c>
-      <c r="F46" t="n">
-        <v>41.6729</v>
-      </c>
-      <c r="G46" t="n">
-        <v>41.9967</v>
-      </c>
-      <c r="H46" t="n">
-        <v>697.3910000000001</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>BasketballDrill_832x480_50_500_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>501</v>
-      </c>
-      <c r="D47" t="n">
-        <v>634.5049</v>
-      </c>
-      <c r="E47" t="n">
-        <v>36.6413</v>
-      </c>
-      <c r="F47" t="n">
-        <v>40.3594</v>
-      </c>
-      <c r="G47" t="n">
-        <v>40.5519</v>
-      </c>
-      <c r="H47" t="n">
-        <v>505.404</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>BasketballDrill_832x480_50_500_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>501</v>
-      </c>
-      <c r="D48" t="n">
-        <v>303.2125</v>
-      </c>
-      <c r="E48" t="n">
-        <v>33.6387</v>
-      </c>
-      <c r="F48" t="n">
-        <v>38.0867</v>
-      </c>
-      <c r="G48" t="n">
-        <v>38.0118</v>
-      </c>
-      <c r="H48" t="n">
-        <v>346.542</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>BasketballDrill_832x480_50_500_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>501</v>
-      </c>
-      <c r="D49" t="n">
-        <v>156.8263</v>
-      </c>
-      <c r="E49" t="n">
-        <v>31.1211</v>
-      </c>
-      <c r="F49" t="n">
-        <v>36.1442</v>
-      </c>
-      <c r="G49" t="n">
-        <v>35.8214</v>
-      </c>
-      <c r="H49" t="n">
-        <v>243.384</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>﻿BQMall_832x480_60_600_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>601</v>
-      </c>
-      <c r="D50" t="n">
-        <v>753.1911</v>
-      </c>
-      <c r="E50" t="n">
-        <v>37.6735</v>
-      </c>
-      <c r="F50" t="n">
-        <v>42.2689</v>
-      </c>
-      <c r="G50" t="n">
-        <v>43.5245</v>
-      </c>
-      <c r="H50" t="n">
-        <v>548.23</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>BQMall_832x480_60_600_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>601</v>
-      </c>
-      <c r="D51" t="n">
-        <v>488.0745</v>
-      </c>
-      <c r="E51" t="n">
-        <v>36.0175</v>
-      </c>
-      <c r="F51" t="n">
-        <v>41.1418</v>
-      </c>
-      <c r="G51" t="n">
-        <v>42.2176</v>
-      </c>
-      <c r="H51" t="n">
-        <v>437.361</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>BQMall_832x480_60_600_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>601</v>
-      </c>
-      <c r="D52" t="n">
-        <v>240.6038</v>
-      </c>
-      <c r="E52" t="n">
-        <v>33.1449</v>
-      </c>
-      <c r="F52" t="n">
-        <v>39.2604</v>
-      </c>
-      <c r="G52" t="n">
-        <v>40.0431</v>
-      </c>
-      <c r="H52" t="n">
-        <v>302.412</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>BQMall_832x480_60_600_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>601</v>
-      </c>
-      <c r="D53" t="n">
-        <v>124.3523</v>
-      </c>
-      <c r="E53" t="n">
-        <v>30.5154</v>
-      </c>
-      <c r="F53" t="n">
-        <v>37.3151</v>
-      </c>
-      <c r="G53" t="n">
-        <v>37.8369</v>
-      </c>
-      <c r="H53" t="n">
-        <v>217.848</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>﻿PartyScene_832x480_50_500_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>501</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1302.7559</v>
-      </c>
-      <c r="E54" t="n">
-        <v>33.8059</v>
-      </c>
-      <c r="F54" t="n">
-        <v>38.6155</v>
-      </c>
-      <c r="G54" t="n">
-        <v>39.6134</v>
-      </c>
-      <c r="H54" t="n">
-        <v>578.492</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PartyScene_832x480_50_500_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>501</v>
-      </c>
-      <c r="D55" t="n">
-        <v>804.0493</v>
-      </c>
-      <c r="E55" t="n">
-        <v>31.8711</v>
-      </c>
-      <c r="F55" t="n">
-        <v>37.3694</v>
-      </c>
-      <c r="G55" t="n">
-        <v>38.2865</v>
-      </c>
-      <c r="H55" t="n">
-        <v>455.136</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PartyScene_832x480_50_500_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>501</v>
-      </c>
-      <c r="D56" t="n">
-        <v>341.0319</v>
-      </c>
-      <c r="E56" t="n">
-        <v>28.8178</v>
-      </c>
-      <c r="F56" t="n">
-        <v>35.5156</v>
-      </c>
-      <c r="G56" t="n">
-        <v>36.258</v>
-      </c>
-      <c r="H56" t="n">
-        <v>299.073</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PartyScene_832x480_50_500_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>501</v>
-      </c>
-      <c r="D57" t="n">
-        <v>143.8295</v>
-      </c>
-      <c r="E57" t="n">
-        <v>26.151</v>
-      </c>
-      <c r="F57" t="n">
-        <v>33.7075</v>
-      </c>
-      <c r="G57" t="n">
-        <v>34.3213</v>
-      </c>
-      <c r="H57" t="n">
-        <v>205.516</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>﻿RaceHorses_832x480_30_300_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>300</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1769.1416</v>
-      </c>
-      <c r="E58" t="n">
-        <v>35.6047</v>
-      </c>
-      <c r="F58" t="n">
-        <v>39.0296</v>
-      </c>
-      <c r="G58" t="n">
-        <v>40.8025</v>
-      </c>
-      <c r="H58" t="n">
-        <v>509.088</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>RaceHorses_832x480_30_300_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>300</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1095.8792</v>
-      </c>
-      <c r="E59" t="n">
-        <v>33.8756</v>
-      </c>
-      <c r="F59" t="n">
-        <v>37.7102</v>
-      </c>
-      <c r="G59" t="n">
-        <v>39.531</v>
-      </c>
-      <c r="H59" t="n">
-        <v>408.291</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>RaceHorses_832x480_30_300_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>300</v>
-      </c>
-      <c r="D60" t="n">
-        <v>489.2016</v>
-      </c>
-      <c r="E60" t="n">
-        <v>30.9183</v>
-      </c>
-      <c r="F60" t="n">
-        <v>35.6925</v>
-      </c>
-      <c r="G60" t="n">
-        <v>37.4351</v>
-      </c>
-      <c r="H60" t="n">
-        <v>275.771</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>RaceHorses_832x480_30_300_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>300</v>
-      </c>
-      <c r="D61" t="n">
-        <v>225.9416</v>
-      </c>
-      <c r="E61" t="n">
-        <v>28.5189</v>
-      </c>
-      <c r="F61" t="n">
-        <v>33.9362</v>
-      </c>
-      <c r="G61" t="n">
-        <v>35.4358</v>
-      </c>
-      <c r="H61" t="n">
-        <v>185.647</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>﻿BasketballPass_416x240_50_500_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>501</v>
-      </c>
-      <c r="D62" t="n">
-        <v>540.9705</v>
-      </c>
-      <c r="E62" t="n">
-        <v>38.3668</v>
-      </c>
-      <c r="F62" t="n">
-        <v>42.6826</v>
-      </c>
-      <c r="G62" t="n">
-        <v>41.4224</v>
-      </c>
-      <c r="H62" t="n">
-        <v>194.693</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>BasketballPass_416x240_50_500_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>501</v>
-      </c>
-      <c r="D63" t="n">
-        <v>355.8156</v>
-      </c>
-      <c r="E63" t="n">
-        <v>36.2459</v>
-      </c>
-      <c r="F63" t="n">
-        <v>41.1782</v>
-      </c>
-      <c r="G63" t="n">
-        <v>39.7141</v>
-      </c>
-      <c r="H63" t="n">
-        <v>164.586</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>BasketballPass_416x240_50_500_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>501</v>
-      </c>
-      <c r="D64" t="n">
-        <v>170.3401</v>
-      </c>
-      <c r="E64" t="n">
-        <v>32.8928</v>
-      </c>
-      <c r="F64" t="n">
-        <v>38.8501</v>
-      </c>
-      <c r="G64" t="n">
-        <v>36.9461</v>
-      </c>
-      <c r="H64" t="n">
-        <v>117.367</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>BasketballPass_416x240_50_500_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>501</v>
-      </c>
-      <c r="D65" t="n">
-        <v>84.8819</v>
-      </c>
-      <c r="E65" t="n">
-        <v>30.1528</v>
-      </c>
-      <c r="F65" t="n">
-        <v>36.7332</v>
-      </c>
-      <c r="G65" t="n">
-        <v>34.5203</v>
-      </c>
-      <c r="H65" t="n">
-        <v>82.00399999999999</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>﻿BlowingBubbles_416x240_50_500_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>501</v>
-      </c>
-      <c r="D66" t="n">
-        <v>424.3133</v>
-      </c>
-      <c r="E66" t="n">
-        <v>35.1303</v>
-      </c>
-      <c r="F66" t="n">
-        <v>39.2766</v>
-      </c>
-      <c r="G66" t="n">
-        <v>40.2387</v>
-      </c>
-      <c r="H66" t="n">
-        <v>148.028</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>BlowingBubbles_416x240_50_500_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>501</v>
-      </c>
-      <c r="D67" t="n">
-        <v>261.8587</v>
-      </c>
-      <c r="E67" t="n">
-        <v>33.1628</v>
-      </c>
-      <c r="F67" t="n">
-        <v>37.9065</v>
-      </c>
-      <c r="G67" t="n">
-        <v>38.8274</v>
-      </c>
-      <c r="H67" t="n">
-        <v>118.031</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>BlowingBubbles_416x240_50_500_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>501</v>
-      </c>
-      <c r="D68" t="n">
-        <v>114.321</v>
-      </c>
-      <c r="E68" t="n">
-        <v>30.0804</v>
-      </c>
-      <c r="F68" t="n">
-        <v>35.757</v>
-      </c>
-      <c r="G68" t="n">
-        <v>36.5659</v>
-      </c>
-      <c r="H68" t="n">
-        <v>78.55800000000001</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>BlowingBubbles_416x240_50_500_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>501</v>
-      </c>
-      <c r="D69" t="n">
-        <v>49.3988</v>
-      </c>
-      <c r="E69" t="n">
-        <v>27.3893</v>
-      </c>
-      <c r="F69" t="n">
-        <v>33.725</v>
-      </c>
-      <c r="G69" t="n">
-        <v>34.5785</v>
-      </c>
-      <c r="H69" t="n">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>﻿BQSquare_416x240_60_600_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>601</v>
-      </c>
-      <c r="D70" t="n">
-        <v>257.6937</v>
-      </c>
-      <c r="E70" t="n">
-        <v>34.3393</v>
-      </c>
-      <c r="F70" t="n">
-        <v>41.4564</v>
-      </c>
-      <c r="G70" t="n">
-        <v>42.6452</v>
-      </c>
-      <c r="H70" t="n">
-        <v>118.21</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>BQSquare_416x240_60_600_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>601</v>
-      </c>
-      <c r="D71" t="n">
-        <v>150.9241</v>
-      </c>
-      <c r="E71" t="n">
-        <v>32.5251</v>
-      </c>
-      <c r="F71" t="n">
-        <v>40.3289</v>
-      </c>
-      <c r="G71" t="n">
-        <v>41.5675</v>
-      </c>
-      <c r="H71" t="n">
-        <v>89.708</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>BQSquare_416x240_60_600_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>601</v>
-      </c>
-      <c r="D72" t="n">
-        <v>69.30410000000001</v>
-      </c>
-      <c r="E72" t="n">
-        <v>29.7417</v>
-      </c>
-      <c r="F72" t="n">
-        <v>38.7642</v>
-      </c>
-      <c r="G72" t="n">
-        <v>39.7936</v>
-      </c>
-      <c r="H72" t="n">
-        <v>59.397</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>BQSquare_416x240_60_600_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>601</v>
-      </c>
-      <c r="D73" t="n">
-        <v>35.0328</v>
-      </c>
-      <c r="E73" t="n">
-        <v>27.0451</v>
-      </c>
-      <c r="F73" t="n">
-        <v>37.5789</v>
-      </c>
-      <c r="G73" t="n">
-        <v>38.1231</v>
-      </c>
-      <c r="H73" t="n">
-        <v>42.2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>﻿RaceHorses_416x240_30_300_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>300</v>
-      </c>
-      <c r="D74" t="n">
-        <v>635.3112</v>
-      </c>
-      <c r="E74" t="n">
-        <v>36.4918</v>
-      </c>
-      <c r="F74" t="n">
-        <v>39.4142</v>
-      </c>
-      <c r="G74" t="n">
-        <v>40.7182</v>
-      </c>
-      <c r="H74" t="n">
-        <v>137.245</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>RaceHorses_416x240_30_300_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>300</v>
-      </c>
-      <c r="D75" t="n">
-        <v>410.1952</v>
-      </c>
-      <c r="E75" t="n">
-        <v>34.3646</v>
-      </c>
-      <c r="F75" t="n">
-        <v>37.9263</v>
-      </c>
-      <c r="G75" t="n">
-        <v>39.2396</v>
-      </c>
-      <c r="H75" t="n">
-        <v>114.206</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>RaceHorses_416x240_30_300_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>300</v>
-      </c>
-      <c r="D76" t="n">
-        <v>190.492</v>
-      </c>
-      <c r="E76" t="n">
-        <v>31.0158</v>
-      </c>
-      <c r="F76" t="n">
-        <v>35.6975</v>
-      </c>
-      <c r="G76" t="n">
-        <v>36.8489</v>
-      </c>
-      <c r="H76" t="n">
-        <v>79.48699999999999</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>RaceHorses_416x240_30_300_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>300</v>
-      </c>
-      <c r="D77" t="n">
-        <v>91.452</v>
-      </c>
-      <c r="E77" t="n">
-        <v>28.4607</v>
-      </c>
-      <c r="F77" t="n">
-        <v>33.684</v>
-      </c>
-      <c r="G77" t="n">
-        <v>34.6436</v>
-      </c>
-      <c r="H77" t="n">
-        <v>52.73699999999999</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>﻿FourPeople_1280x720_60_600_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>600</v>
-      </c>
-      <c r="D78" t="n">
-        <v>596.0576</v>
-      </c>
-      <c r="E78" t="n">
-        <v>41.901</v>
-      </c>
-      <c r="F78" t="n">
-        <v>46.5843</v>
-      </c>
-      <c r="G78" t="n">
-        <v>48.0293</v>
-      </c>
-      <c r="H78" t="n">
-        <v>657.1460000000001</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>FourPeople_1280x720_60_600_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>600</v>
-      </c>
-      <c r="D79" t="n">
-        <v>375.0084</v>
-      </c>
-      <c r="E79" t="n">
-        <v>40.6789</v>
-      </c>
-      <c r="F79" t="n">
-        <v>45.589</v>
-      </c>
-      <c r="G79" t="n">
-        <v>46.9702</v>
-      </c>
-      <c r="H79" t="n">
-        <v>494.351</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>FourPeople_1280x720_60_600_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>600</v>
-      </c>
-      <c r="D80" t="n">
-        <v>197.0784</v>
-      </c>
-      <c r="E80" t="n">
-        <v>38.1947</v>
-      </c>
-      <c r="F80" t="n">
-        <v>43.7566</v>
-      </c>
-      <c r="G80" t="n">
-        <v>45.0523</v>
-      </c>
-      <c r="H80" t="n">
-        <v>351.093</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>FourPeople_1280x720_60_600_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>600</v>
-      </c>
-      <c r="D81" t="n">
-        <v>111.9432</v>
-      </c>
-      <c r="E81" t="n">
-        <v>35.5279</v>
-      </c>
-      <c r="F81" t="n">
-        <v>41.8945</v>
-      </c>
-      <c r="G81" t="n">
-        <v>43.0511</v>
-      </c>
-      <c r="H81" t="n">
-        <v>266.115</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>﻿Johnny_1280x720_60_600_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>600</v>
-      </c>
-      <c r="D82" t="n">
-        <v>380.9136</v>
-      </c>
-      <c r="E82" t="n">
-        <v>42.5169</v>
-      </c>
-      <c r="F82" t="n">
-        <v>48.3764</v>
-      </c>
-      <c r="G82" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="H82" t="n">
-        <v>562.51</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Johnny_1280x720_60_600_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>600</v>
-      </c>
-      <c r="D83" t="n">
-        <v>201.8808</v>
-      </c>
-      <c r="E83" t="n">
-        <v>41.6603</v>
-      </c>
-      <c r="F83" t="n">
-        <v>47.5952</v>
-      </c>
-      <c r="G83" t="n">
-        <v>48.3899</v>
-      </c>
-      <c r="H83" t="n">
-        <v>399.804</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Johnny_1280x720_60_600_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>600</v>
-      </c>
-      <c r="D84" t="n">
-        <v>98.8612</v>
-      </c>
-      <c r="E84" t="n">
-        <v>39.882</v>
-      </c>
-      <c r="F84" t="n">
-        <v>45.8933</v>
-      </c>
-      <c r="G84" t="n">
-        <v>46.6636</v>
-      </c>
-      <c r="H84" t="n">
-        <v>268.882</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Johnny_1280x720_60_600_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>600</v>
-      </c>
-      <c r="D85" t="n">
-        <v>54.9268</v>
-      </c>
-      <c r="E85" t="n">
-        <v>37.7771</v>
-      </c>
-      <c r="F85" t="n">
-        <v>43.9263</v>
-      </c>
-      <c r="G85" t="n">
-        <v>44.6089</v>
-      </c>
-      <c r="H85" t="n">
-        <v>188.585</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>﻿KristenAndSara_1280x720_60_600_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>600</v>
-      </c>
-      <c r="D86" t="n">
-        <v>598.6732</v>
-      </c>
-      <c r="E86" t="n">
-        <v>42.69</v>
-      </c>
-      <c r="F86" t="n">
-        <v>47.5324</v>
-      </c>
-      <c r="G86" t="n">
-        <v>48.5403</v>
-      </c>
-      <c r="H86" t="n">
-        <v>724.758</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>KristenAndSara_1280x720_60_600_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>600</v>
-      </c>
-      <c r="D87" t="n">
-        <v>339.6588</v>
-      </c>
-      <c r="E87" t="n">
-        <v>41.6233</v>
-      </c>
-      <c r="F87" t="n">
-        <v>46.5742</v>
-      </c>
-      <c r="G87" t="n">
-        <v>47.6099</v>
-      </c>
-      <c r="H87" t="n">
-        <v>522.9159999999999</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>KristenAndSara_1280x720_60_600_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>600</v>
-      </c>
-      <c r="D88" t="n">
-        <v>163.8372</v>
-      </c>
-      <c r="E88" t="n">
-        <v>39.426</v>
-      </c>
-      <c r="F88" t="n">
-        <v>44.7523</v>
-      </c>
-      <c r="G88" t="n">
-        <v>45.8453</v>
-      </c>
-      <c r="H88" t="n">
-        <v>353.313</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>KristenAndSara_1280x720_60_600_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>600</v>
-      </c>
-      <c r="D89" t="n">
-        <v>88.7016</v>
-      </c>
-      <c r="E89" t="n">
-        <v>37.0134</v>
-      </c>
-      <c r="F89" t="n">
-        <v>42.9493</v>
-      </c>
-      <c r="G89" t="n">
-        <v>44.0341</v>
-      </c>
-      <c r="H89" t="n">
-        <v>255.766</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>﻿BasketballDrillText_832x480_50_500_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>501</v>
-      </c>
-      <c r="D90" t="n">
-        <v>959.0764</v>
-      </c>
-      <c r="E90" t="n">
-        <v>38.1257</v>
-      </c>
-      <c r="F90" t="n">
-        <v>41.0201</v>
-      </c>
-      <c r="G90" t="n">
-        <v>41.3324</v>
-      </c>
-      <c r="H90" t="n">
-        <v>605.933</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>BasketballDrillText_832x480_50_500_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>501</v>
-      </c>
-      <c r="D91" t="n">
-        <v>628.845</v>
-      </c>
-      <c r="E91" t="n">
-        <v>36.234</v>
-      </c>
-      <c r="F91" t="n">
-        <v>39.4809</v>
-      </c>
-      <c r="G91" t="n">
-        <v>39.675</v>
-      </c>
-      <c r="H91" t="n">
-        <v>483.398</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>BasketballDrillText_832x480_50_500_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>501</v>
-      </c>
-      <c r="D92" t="n">
-        <v>305.7365</v>
-      </c>
-      <c r="E92" t="n">
-        <v>33.1334</v>
-      </c>
-      <c r="F92" t="n">
-        <v>37.051</v>
-      </c>
-      <c r="G92" t="n">
-        <v>37.0433</v>
-      </c>
-      <c r="H92" t="n">
-        <v>330.89</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>BasketballDrillText_832x480_50_500_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>501</v>
-      </c>
-      <c r="D93" t="n">
-        <v>157.4889</v>
-      </c>
-      <c r="E93" t="n">
-        <v>30.453</v>
-      </c>
-      <c r="F93" t="n">
-        <v>34.8941</v>
-      </c>
-      <c r="G93" t="n">
-        <v>34.6851</v>
-      </c>
-      <c r="H93" t="n">
-        <v>233.535</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>﻿ChinaSpeed_1024x768_30_300_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>500</v>
-      </c>
-      <c r="D94" t="n">
-        <v>2502.7368</v>
-      </c>
-      <c r="E94" t="n">
-        <v>37.9234</v>
-      </c>
-      <c r="F94" t="n">
-        <v>43.4406</v>
-      </c>
-      <c r="G94" t="n">
-        <v>42.7698</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1204.81</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ChinaSpeed_1024x768_30_300_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>500</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1574.2546</v>
-      </c>
-      <c r="E95" t="n">
-        <v>35.6632</v>
-      </c>
-      <c r="F95" t="n">
-        <v>42.003</v>
-      </c>
-      <c r="G95" t="n">
-        <v>40.9001</v>
-      </c>
-      <c r="H95" t="n">
-        <v>965.602</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>ChinaSpeed_1024x768_30_300_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>500</v>
-      </c>
-      <c r="D96" t="n">
-        <v>653.1935999999999</v>
-      </c>
-      <c r="E96" t="n">
-        <v>32.053</v>
-      </c>
-      <c r="F96" t="n">
-        <v>39.7002</v>
-      </c>
-      <c r="G96" t="n">
-        <v>38.0473</v>
-      </c>
-      <c r="H96" t="n">
-        <v>659.373</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ChinaSpeed_1024x768_30_300_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>500</v>
-      </c>
-      <c r="D97" t="n">
-        <v>276.2923</v>
-      </c>
-      <c r="E97" t="n">
-        <v>29.172</v>
-      </c>
-      <c r="F97" t="n">
-        <v>37.5825</v>
-      </c>
-      <c r="G97" t="n">
-        <v>35.6925</v>
-      </c>
-      <c r="H97" t="n">
-        <v>445.979</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>﻿SlideEditing_1280x720_30_300_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>300</v>
-      </c>
-      <c r="D98" t="n">
-        <v>452.3472</v>
-      </c>
-      <c r="E98" t="n">
-        <v>39.9371</v>
-      </c>
-      <c r="F98" t="n">
-        <v>40.021</v>
-      </c>
-      <c r="G98" t="n">
-        <v>41.046</v>
-      </c>
-      <c r="H98" t="n">
-        <v>167.27</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>SlideEditing_1280x720_30_300_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>300</v>
-      </c>
-      <c r="D99" t="n">
-        <v>369.54</v>
-      </c>
-      <c r="E99" t="n">
-        <v>36.9293</v>
-      </c>
-      <c r="F99" t="n">
-        <v>38.9575</v>
-      </c>
-      <c r="G99" t="n">
-        <v>40.0419</v>
-      </c>
-      <c r="H99" t="n">
-        <v>160.153</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>SlideEditing_1280x720_30_300_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>300</v>
-      </c>
-      <c r="D100" t="n">
-        <v>248.0816</v>
-      </c>
-      <c r="E100" t="n">
-        <v>31.8396</v>
-      </c>
-      <c r="F100" t="n">
-        <v>37.6892</v>
-      </c>
-      <c r="G100" t="n">
-        <v>38.5219</v>
-      </c>
-      <c r="H100" t="n">
-        <v>142.171</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>SlideEditing_1280x720_30_300_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>300</v>
-      </c>
-      <c r="D101" t="n">
-        <v>151.588</v>
-      </c>
-      <c r="E101" t="n">
-        <v>26.9241</v>
-      </c>
-      <c r="F101" t="n">
-        <v>36.0276</v>
-      </c>
-      <c r="G101" t="n">
-        <v>36.2326</v>
-      </c>
-      <c r="H101" t="n">
-        <v>116.052</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>﻿SlideShow_1280x720_20_500_qp27(anchor)</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>500</v>
-      </c>
-      <c r="D102" t="n">
-        <v>542.1672</v>
-      </c>
-      <c r="E102" t="n">
-        <v>46.864</v>
-      </c>
-      <c r="F102" t="n">
-        <v>51.1988</v>
-      </c>
-      <c r="G102" t="n">
-        <v>52.5463</v>
-      </c>
-      <c r="H102" t="n">
-        <v>376.571</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>SlideShow_1280x720_20_500_qp30(anchor)</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>500</v>
-      </c>
-      <c r="D103" t="n">
-        <v>398.3328</v>
-      </c>
-      <c r="E103" t="n">
-        <v>44.5316</v>
-      </c>
-      <c r="F103" t="n">
-        <v>49.5521</v>
-      </c>
-      <c r="G103" t="n">
-        <v>50.9839</v>
-      </c>
-      <c r="H103" t="n">
-        <v>338.506</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>SlideShow_1280x720_20_500_qp35(anchor)</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>500</v>
-      </c>
-      <c r="D104" t="n">
-        <v>237.6456</v>
-      </c>
-      <c r="E104" t="n">
-        <v>40.5795</v>
-      </c>
-      <c r="F104" t="n">
-        <v>46.83</v>
-      </c>
-      <c r="G104" t="n">
-        <v>48.4895</v>
-      </c>
-      <c r="H104" t="n">
-        <v>274.34</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>SlideShow_1280x720_20_500_qp40(anchor)</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>500</v>
-      </c>
-      <c r="D105" t="n">
-        <v>150.2357</v>
-      </c>
-      <c r="E105" t="n">
-        <v>37.3024</v>
-      </c>
-      <c r="F105" t="n">
-        <v>44.4312</v>
-      </c>
-      <c r="G105" t="n">
-        <v>46.4066</v>
-      </c>
-      <c r="H105" t="n">
-        <v>213.501</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/scripts/data_analysis/out/analysis_result_x264_vs._x265_vs._uavs3e.xlsx
+++ b/scripts/data_analysis/out/analysis_result_x264_vs._x265_vs._uavs3e.xlsx
@@ -192,6 +192,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -206,32 +232,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -371,6 +371,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -385,32 +411,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -550,6 +550,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -564,32 +590,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -729,6 +729,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="25"/>
         </scaling>
         <axPos val="l"/>
@@ -743,32 +769,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -908,6 +908,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -922,32 +948,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1087,6 +1087,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="21"/>
         </scaling>
         <axPos val="l"/>
@@ -1101,32 +1127,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1266,6 +1266,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="23"/>
         </scaling>
         <axPos val="l"/>
@@ -1280,32 +1306,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1445,6 +1445,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -1459,32 +1485,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1624,6 +1624,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="21"/>
         </scaling>
         <axPos val="l"/>
@@ -1638,32 +1664,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1803,6 +1803,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="20"/>
         </scaling>
         <axPos val="l"/>
@@ -1817,32 +1843,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1982,6 +1982,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="23"/>
         </scaling>
         <axPos val="l"/>
@@ -1996,32 +2022,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2161,6 +2161,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="28"/>
         </scaling>
         <axPos val="l"/>
@@ -2175,32 +2201,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2340,6 +2340,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="28"/>
         </scaling>
         <axPos val="l"/>
@@ -2354,32 +2380,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2519,6 +2519,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="29"/>
         </scaling>
         <axPos val="l"/>
@@ -2533,32 +2559,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2698,6 +2698,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="28"/>
         </scaling>
         <axPos val="l"/>
@@ -2712,32 +2738,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -2877,6 +2877,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -2891,32 +2917,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3056,6 +3056,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="23"/>
         </scaling>
         <axPos val="l"/>
@@ -3070,32 +3096,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3235,6 +3235,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -3249,32 +3275,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3414,6 +3414,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -3428,32 +3454,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3593,6 +3593,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="29"/>
         </scaling>
         <axPos val="l"/>
@@ -3607,32 +3633,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3772,6 +3772,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="27"/>
         </scaling>
         <axPos val="l"/>
@@ -3786,32 +3812,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -3951,6 +3951,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="25"/>
         </scaling>
         <axPos val="l"/>
@@ -3965,32 +3991,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4130,6 +4130,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -4144,32 +4170,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4309,6 +4309,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="26"/>
         </scaling>
         <axPos val="l"/>
@@ -4323,32 +4349,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4488,6 +4488,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="24"/>
         </scaling>
         <axPos val="l"/>
@@ -4502,32 +4528,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -4667,6 +4667,32 @@
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Bitrate (kbps)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
           <min val="25"/>
         </scaling>
         <axPos val="l"/>
@@ -4681,32 +4707,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Y-PSNR (dB)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Bitrate (kbps)</a:t>
                 </a:r>
               </a:p>
             </rich>
